--- a/medicine/Mort/Cimetière_de_Chaville/Cimetière_de_Chaville.xlsx
+++ b/medicine/Mort/Cimetière_de_Chaville/Cimetière_de_Chaville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chaville</t>
+          <t>Cimetière_de_Chaville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Chaville est le cimetière communal de la commune de Chaville, dans les Hauts-de-Seine, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chaville</t>
+          <t>Cimetière_de_Chaville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé à l'entrée de la forêt de Meudon[1], sur la route des Huit-Bouteilles[2], il est accessible par la rue Anatole-France, ainsi que par un chemin piétonnier menant à la rue de la Mare-Adam.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé à l'entrée de la forêt de Meudon, sur la route des Huit-Bouteilles, il est accessible par la rue Anatole-France, ainsi que par un chemin piétonnier menant à la rue de la Mare-Adam.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chaville</t>
+          <t>Cimetière_de_Chaville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il remplace le cimetière qui entourait l’ancienne église Notre-Dame, détruite en 1966[3].
-Il s'y trouve un monument aux morts pour la France[4].
-En 1962, des recherches archéologiques entreprises dans le voisinage ont permis d'y dégager des pointes de flèches préhistoriques[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il remplace le cimetière qui entourait l’ancienne église Notre-Dame, détruite en 1966.
+Il s'y trouve un monument aux morts pour la France.
+En 1962, des recherches archéologiques entreprises dans le voisinage ont permis d'y dégager des pointes de flèches préhistoriques.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chaville</t>
+          <t>Cimetière_de_Chaville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,15 +591,17 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prince Hovsep Arghutian (1863-1925)[6] ;
-Paul Carnot (1869-1957)[7], et son beau-frère Paul Guadet (1873-1931). Sur la tombe de Paul Carnot est mentionné Roger Coquoin (1897-1943), mort pour la France, et dont le corps n'a pas été retrouvé ;
-Philippe Castelli (1925-2006)[8], acteur ;
-Albert Perdreaux (1897-1934), qui a laissé son nom à une rue de la ville, la rue Albert-Perdreaux[9] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prince Hovsep Arghutian (1863-1925) ;
+Paul Carnot (1869-1957), et son beau-frère Paul Guadet (1873-1931). Sur la tombe de Paul Carnot est mentionné Roger Coquoin (1897-1943), mort pour la France, et dont le corps n'a pas été retrouvé ;
+Philippe Castelli (1925-2006), acteur ;
+Albert Perdreaux (1897-1934), qui a laissé son nom à une rue de la ville, la rue Albert-Perdreaux ;
 Patrick Poivey (1948-2020), acteur et directeur artistique ;
 Brigitte Sabouraud (1922-2002), chanteuse et directrice de cabaret ;
-Sépulture des frères de Saint-Vincent-de-Paul. Y est enterré le père Dominique Chéreau[10],[11] ;
+Sépulture des frères de Saint-Vincent-de-Paul. Y est enterré le père Dominique Chéreau, ;
 Jean de Vizcaya (1902-1931), aviateur.</t>
         </is>
       </c>
